--- a/medicine/Pharmacie/Inclisiran/Inclisiran.xlsx
+++ b/medicine/Pharmacie/Inclisiran/Inclisiran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inclisiran est un petit ARN interférent dirigé contre l'ARN du PCSK9, en cours de test dans les hypercholestérolémies.
 </t>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il inhibe la production du PCSK9 au niveau de la cellule hépatique. Par ce biais, il favorise la  dégradation des LDL-cholestérol. Il se donne par une injection sous-cutanée tous les six mois[1], ce qui est un avantage par rapport aux anticorps monoclonaux dirigés contre le PSCK9 qui s'injectent de manière plus fréquente.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il inhibe la production du PCSK9 au niveau de la cellule hépatique. Par ce biais, il favorise la  dégradation des LDL-cholestérol. Il se donne par une injection sous-cutanée tous les six mois, ce qui est un avantage par rapport aux anticorps monoclonaux dirigés contre le PSCK9 qui s'injectent de manière plus fréquente.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ajouté à la dose maximale tolérée de statines, il permet une réduction de moitié du taux de LDL-cholestérol, que cela soit chez des patients porteurs d'une maladie cardiovasculaire[2] ou en prévention primaire, chez des patients porteurs d'une hypercholestérolémie familiale hétérozygote[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajouté à la dose maximale tolérée de statines, il permet une réduction de moitié du taux de LDL-cholestérol, que cela soit chez des patients porteurs d'une maladie cardiovasculaire ou en prévention primaire, chez des patients porteurs d'une hypercholestérolémie familiale hétérozygote.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le principal effet secondaire est local, au point d'injection, peu important et régressif[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principal effet secondaire est local, au point d'injection, peu important et régressif. 
 </t>
         </is>
       </c>
